--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7421E54-23F5-5740-B012-5B28E94F5815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0C27A3-D046-2F45-89F0-D8DCE648AB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -71,9 +71,6 @@
     <t>gurps_martial_arts_supplement.jpg</t>
   </si>
   <si>
-    <t>gurps_cocoon.jpg_small</t>
-  </si>
-  <si>
     <t>gurps_cocoon_adventure.jpg</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>youmaiso_mystery_case.jpg</t>
   </si>
   <si>
-    <t>tokyo_crises.jpg</t>
-  </si>
-  <si>
     <t>horrible_chess_game.jpg</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>Chess Game of Dread: GURPS Creatures of the Night Replay</t>
+  </si>
+  <si>
+    <t>tokyo_crisis.jpg</t>
+  </si>
+  <si>
+    <t>gurps_cocoon.jpg</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,13 +609,13 @@
         <v>1992</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -626,10 +626,10 @@
         <v>1993</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>1993</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -654,10 +654,10 @@
         <v>1994</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -668,10 +668,10 @@
         <v>1995</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -682,10 +682,10 @@
         <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -696,10 +696,10 @@
         <v>1996</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -710,13 +710,13 @@
         <v>1994</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,13 +724,13 @@
         <v>1994</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -738,13 +738,13 @@
         <v>1994</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,13 +752,13 @@
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -766,13 +766,13 @@
         <v>1995</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -780,13 +780,13 @@
         <v>1996</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -794,13 +794,13 @@
         <v>1997</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -808,13 +808,13 @@
         <v>1994</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -822,13 +822,13 @@
         <v>1995</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -836,13 +836,13 @@
         <v>1996</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -850,13 +850,13 @@
         <v>1996</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0C27A3-D046-2F45-89F0-D8DCE648AB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B3049-F30C-1148-8F15-C9AC6D4D28C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>騒げ、悪党たち!―ガープス・コクーン・アドベンチャー</t>
   </si>
   <si>
-    <t>Uproar, the Villains! GURPS Cacoon Adventure</t>
-  </si>
-  <si>
     <t>ガープス・リング★ドリーム―女子プロレス最強伝説</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>gurps_cocoon.jpg</t>
+  </si>
+  <si>
+    <t>Uproar, the Villains! GURPS Cocoon Adventure</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,10 +710,10 @@
         <v>1994</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -724,10 +724,10 @@
         <v>1994</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -738,13 +738,13 @@
         <v>1994</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,10 +752,10 @@
         <v>1995</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -766,10 +766,10 @@
         <v>1995</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -780,13 +780,13 @@
         <v>1996</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -794,10 +794,10 @@
         <v>1997</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -808,10 +808,10 @@
         <v>1994</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -822,10 +822,10 @@
         <v>1995</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -842,7 +842,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B3049-F30C-1148-8F15-C9AC6D4D28C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502B96B7-6596-FA4D-A9A4-85507EF89FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>image</t>
   </si>
@@ -213,6 +213,51 @@
   </si>
   <si>
     <t>Uproar, the Villains! GURPS Cocoon Adventure</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル</t>
+  </si>
+  <si>
+    <t>GURPS Runal</t>
+  </si>
+  <si>
+    <t>gurps_runal.jpg</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・モンスター</t>
+  </si>
+  <si>
+    <t>GURPS Runal Monster</t>
+  </si>
+  <si>
+    <t>gurps_runal_monster.jpg</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・コンパニオンズ</t>
+  </si>
+  <si>
+    <t>GURPS Runal Companions</t>
+  </si>
+  <si>
+    <t>gurps_runal_companion.jpg</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・アドベンチャー 鬼面都市の冒険</t>
+  </si>
+  <si>
+    <t>GURPS Runal Adventure: Demon Plane City</t>
+  </si>
+  <si>
+    <t>gurps_runal_adv.jpg</t>
+  </si>
+  <si>
+    <t>ガープス・ルナル・アドベンチャー 月を追うものたち</t>
+  </si>
+  <si>
+    <t>GURPS Runal Adventure: Those Who Chase the Moon</t>
+  </si>
+  <si>
+    <t>gurps_runal_adv2.jpg</t>
   </si>
 </sst>
 </file>
@@ -573,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E56E8-4EAA-CD44-BFF7-02D8728E51F7}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,6 +676,9 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -645,6 +693,9 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
@@ -659,6 +710,9 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
@@ -673,6 +727,9 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -687,6 +744,9 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -701,6 +761,9 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
@@ -715,6 +778,9 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -729,6 +795,9 @@
       <c r="C10" t="s">
         <v>52</v>
       </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
@@ -743,6 +812,9 @@
       <c r="C11" t="s">
         <v>49</v>
       </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" t="s">
         <v>50</v>
       </c>
@@ -757,6 +829,9 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
@@ -771,6 +846,9 @@
       <c r="C13" t="s">
         <v>54</v>
       </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
@@ -785,6 +863,9 @@
       <c r="C14" t="s">
         <v>47</v>
       </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" t="s">
         <v>57</v>
       </c>
@@ -799,6 +880,9 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
@@ -813,6 +897,9 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
@@ -827,6 +914,9 @@
       <c r="C17" t="s">
         <v>41</v>
       </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
@@ -841,6 +931,9 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" t="s">
         <v>58</v>
       </c>
@@ -855,8 +948,93 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1992</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1994</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1993</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1995</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502B96B7-6596-FA4D-A9A4-85507EF89FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC7EAA-7099-974A-A3CC-6686D63E4823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
   <si>
     <t>image</t>
   </si>
@@ -258,13 +258,91 @@
   </si>
   <si>
     <t>gurps_runal_adv2.jpg</t>
+  </si>
+  <si>
+    <t>ガープスがよくわかる本</t>
+  </si>
+  <si>
+    <t>GURPS Understand Well Book</t>
+  </si>
+  <si>
+    <t>gurps_yoku_wakaru.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay1.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay2.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay3.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay4.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay5.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay6.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>ルナル・サーガ・リプレイ〈第1部 四姉妹篇 上〉</t>
+  </si>
+  <si>
+    <t>ルナル・サーガ・リプレイ〈第1部 四姉妹篇 下〉</t>
+  </si>
+  <si>
+    <t>ルナル・サーガ・リプレイ 第2部 銀色の闇篇(上)</t>
+  </si>
+  <si>
+    <t>ルナル・サーガ・リプレイ 第2部 銀色の闇篇(下)</t>
+  </si>
+  <si>
+    <t>Runal Saga Replay: Part 1 4 Sisters Vol 1</t>
+  </si>
+  <si>
+    <t>Runal Saga Replay: Part 1 4 Sisters Vol 2</t>
+  </si>
+  <si>
+    <t>ルナル・サーガ・リプレイ 第3部 闇色の時篇(上)</t>
+  </si>
+  <si>
+    <t>ルナル・サーガ・リプレイ 第3部 闇色の時篇(下)</t>
+  </si>
+  <si>
+    <t>Runal Saga Replay: Part 2 Silvery Darkness Vol 1</t>
+  </si>
+  <si>
+    <t>Runal Saga Replay: Part 2 Silvery Darkness Vol 2</t>
+  </si>
+  <si>
+    <t>Runal Saga Replay: Part 3 Dark Times Vol 1</t>
+  </si>
+  <si>
+    <t>Runal Saga Replay: Part 3 Dark Times Vol 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +354,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -618,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E56E8-4EAA-CD44-BFF7-02D8728E51F7}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,9 +714,10 @@
     <col min="3" max="3" width="54.83203125" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,8 +733,11 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1992</v>
       </c>
@@ -665,379 +753,592 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1993</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1993</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1996</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1996</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1996</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1994</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1994</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1994</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1995</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1995</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1995</v>
+      </c>
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1996</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1997</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1994</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1995</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1996</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1996</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1996</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1992</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1994</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1995</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1993</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>1995</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
         <v>74</v>
       </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1993</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1993</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1994</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1995</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1996</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1996</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC7EAA-7099-974A-A3CC-6686D63E4823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA69632-467F-5E45-8459-1910F3E83A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
@@ -272,24 +272,6 @@
     <t>product_type</t>
   </si>
   <si>
-    <t>gurps_runal_replay1.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_replay2.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_replay3.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_replay4.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_replay5.jpg</t>
-  </si>
-  <si>
-    <t>gurps_runal_replay6.jpg</t>
-  </si>
-  <si>
     <t>replay</t>
   </si>
   <si>
@@ -336,6 +318,24 @@
   </si>
   <si>
     <t>Runal Saga Replay: Part 3 Dark Times Vol 2</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay_1a.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay_1b.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay_2a.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay_2b.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay_3a.jpg</t>
+  </si>
+  <si>
+    <t>gurps_runal_replay_3b.jpg</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1034,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,19 +1222,19 @@
         <v>1993</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1242,19 +1242,19 @@
         <v>1993</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1262,19 +1262,19 @@
         <v>1994</v>
       </c>
       <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
         <v>97</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,19 +1282,19 @@
         <v>1995</v>
       </c>
       <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,19 +1302,19 @@
         <v>1996</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
         <v>99</v>
       </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>83</v>
-      </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,19 +1322,19 @@
         <v>1996</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA69632-467F-5E45-8459-1910F3E83A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ACDC2D-00C9-B34B-84FF-21BC5C4156AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>GURPS Basic: General Purpose RPG Rulebook</t>
   </si>
   <si>
-    <t>Kadokawa</t>
-  </si>
-  <si>
     <t>ガープス・マジック―汎用RPG呪文ガイド</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>gurps_runal_replay_3b.jpg</t>
+  </si>
+  <si>
+    <t>Kadokawa Shoten</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,13 +748,13 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,19 +762,19 @@
         <v>1994</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -782,19 +782,19 @@
         <v>1993</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -802,19 +802,19 @@
         <v>1993</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,19 +822,19 @@
         <v>1994</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,19 +842,19 @@
         <v>1995</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -862,19 +862,19 @@
         <v>1996</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -882,19 +882,19 @@
         <v>1996</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,19 +902,19 @@
         <v>1994</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,19 +922,19 @@
         <v>1994</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,19 +942,19 @@
         <v>1994</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,19 +962,19 @@
         <v>1995</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,19 +982,19 @@
         <v>1995</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1002,19 +1002,19 @@
         <v>1996</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,19 +1022,19 @@
         <v>1997</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1042,19 +1042,19 @@
         <v>1994</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1062,19 +1062,19 @@
         <v>1995</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1082,19 +1082,19 @@
         <v>1996</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1102,19 +1102,19 @@
         <v>1996</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1122,19 +1122,19 @@
         <v>1992</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,19 +1142,19 @@
         <v>1994</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,19 +1162,19 @@
         <v>1995</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1182,19 +1182,19 @@
         <v>1993</v>
       </c>
       <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1202,19 +1202,19 @@
         <v>1995</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,19 +1222,19 @@
         <v>1993</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1242,19 +1242,19 @@
         <v>1993</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1262,19 +1262,19 @@
         <v>1994</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1282,19 +1282,19 @@
         <v>1995</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,19 +1302,19 @@
         <v>1996</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,19 +1322,19 @@
         <v>1996</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ACDC2D-00C9-B34B-84FF-21BC5C4156AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DBDCA3-8E7A-4644-B087-D386EE32630C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>image</t>
   </si>
@@ -336,6 +336,144 @@
   </si>
   <si>
     <t>Kadokawa Shoten</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>614-2</t>
+  </si>
+  <si>
+    <t>880-1</t>
+  </si>
+  <si>
+    <t>gurps_basic_sneaker_g.jpg</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>Sneaker Bunko</t>
+  </si>
+  <si>
+    <t>Sneaker G Bunko</t>
+  </si>
+  <si>
+    <t>gurps_magic_sneaker_g.jpg</t>
+  </si>
+  <si>
+    <t>882-1</t>
+  </si>
+  <si>
+    <t>882-2</t>
+  </si>
+  <si>
+    <t>882-5</t>
+  </si>
+  <si>
+    <t>614-1</t>
+  </si>
+  <si>
+    <t>614-20</t>
+  </si>
+  <si>
+    <t>gurps_runal_sneaker_g.jpg</t>
+  </si>
+  <si>
+    <t>881-1</t>
+  </si>
+  <si>
+    <t>881-3</t>
+  </si>
+  <si>
+    <t>881-4</t>
+  </si>
+  <si>
+    <t>881-6</t>
+  </si>
+  <si>
+    <t>881-7</t>
+  </si>
+  <si>
+    <t>Sneaker_Bunko</t>
+  </si>
+  <si>
+    <t>614-21</t>
+  </si>
+  <si>
+    <t>880-4</t>
+  </si>
+  <si>
+    <t>880-5</t>
+  </si>
+  <si>
+    <t>gurps_runal_adv_sneaker_g.jpg</t>
+  </si>
+  <si>
+    <t>880-6</t>
+  </si>
+  <si>
+    <t>884-1</t>
+  </si>
+  <si>
+    <t>880-2</t>
+  </si>
+  <si>
+    <t>881-5</t>
+  </si>
+  <si>
+    <t>881-8</t>
+  </si>
+  <si>
+    <t>881-2</t>
+  </si>
+  <si>
+    <t>880-3</t>
+  </si>
+  <si>
+    <t>886-1</t>
+  </si>
+  <si>
+    <t>881-9</t>
+  </si>
+  <si>
+    <t>883-3</t>
+  </si>
+  <si>
+    <t>882-6</t>
+  </si>
+  <si>
+    <t>882-8</t>
+  </si>
+  <si>
+    <t>882-7</t>
+  </si>
+  <si>
+    <t>novel</t>
+  </si>
+  <si>
+    <t>妖魔百物語―妖の巻</t>
+  </si>
+  <si>
+    <t>100 Stories of Creatures of the Night: Fairy Tale Collection</t>
+  </si>
+  <si>
+    <t>100_tales.jpg</t>
+  </si>
+  <si>
+    <t>882-4</t>
+  </si>
+  <si>
+    <t>881-11</t>
+  </si>
+  <si>
+    <t>881-10</t>
+  </si>
+  <si>
+    <t>882-3</t>
+  </si>
+  <si>
+    <t>883-4</t>
   </si>
 </sst>
 </file>
@@ -702,22 +840,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E56E8-4EAA-CD44-BFF7-02D8728E51F7}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="66.1640625" customWidth="1"/>
     <col min="3" max="3" width="54.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="4" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -731,13 +869,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1992</v>
       </c>
@@ -751,590 +895,891 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1993</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1992</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1993</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1994</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1995</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1996</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1996</v>
-      </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1994</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1996</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1992</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1993</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1994</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1995</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1995</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1996</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1993</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1997</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1994</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>1994</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1995</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1995</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1995</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1996</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1996</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1994</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1994</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1994</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1995</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1995</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>1996</v>
       </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1992</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1994</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1995</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1993</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1995</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1993</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1993</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1994</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1995</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1996</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1997</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>1996</v>
       </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1996</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1994</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1995</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1996</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DBDCA3-8E7A-4644-B087-D386EE32630C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5356DB-4D39-2B42-A15C-A258A32348A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
@@ -458,9 +458,6 @@
     <t>100 Stories of Creatures of the Night: Fairy Tale Collection</t>
   </si>
   <si>
-    <t>100_tales.jpg</t>
-  </si>
-  <si>
     <t>882-4</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>883-4</t>
+  </si>
+  <si>
+    <t>100_tales.jpeg</t>
   </si>
 </sst>
 </file>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6E56E8-4EAA-CD44-BFF7-02D8728E51F7}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,7 +1418,7 @@
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1444,7 +1444,7 @@
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
         <v>138</v>
@@ -1704,7 +1704,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">

--- a/gurps/checklist.xlsx
+++ b/gurps/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gurps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5356DB-4D39-2B42-A15C-A258A32348A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938A71B-51C9-DA46-8C6C-86824F222713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F60F2E55-8A41-6D4D-BDD6-62A196E26653}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="146">
   <si>
     <t>image</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>881-7</t>
-  </si>
-  <si>
-    <t>Sneaker_Bunko</t>
   </si>
   <si>
     <t>614-21</t>
@@ -843,7 +840,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>70</v>
@@ -982,7 +979,7 @@
         <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1054,7 +1051,7 @@
         <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1080,7 +1077,7 @@
         <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,7 +1103,7 @@
         <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1132,7 +1129,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1158,7 +1155,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1204,13 +1201,13 @@
         <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1288,7 +1285,7 @@
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1366,7 +1363,7 @@
         <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1392,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1418,7 +1415,7 @@
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1444,7 +1441,7 @@
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1522,7 +1519,7 @@
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1548,7 +1545,7 @@
         <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1600,7 +1597,7 @@
         <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1608,11 +1605,11 @@
         <v>1996</v>
       </c>
       <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
       <c r="D30" t="s">
         <v>100</v>
       </c>
@@ -1620,13 +1617,13 @@
         <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1652,7 +1649,7 @@
         <v>78</v>
       </c>
       <c r="H31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1678,7 +1675,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1704,7 +1701,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1730,7 +1727,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1779,7 +1776,7 @@
         <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
